--- a/WORK/Correos.xlsx
+++ b/WORK/Correos.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raul_\Desktop\PROGRAMMING\PYTHON\curse_raul_python\WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DE1C82-4C5B-4AF6-8202-8A20AFF364D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD072E6-4617-4FD3-9A94-CDAA300E6BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11640" yWindow="-6915" windowWidth="11760" windowHeight="20040"/>
+    <workbookView xWindow="-11640" yWindow="-6915" windowWidth="11760" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Correos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
   <si>
     <t>Names</t>
   </si>
@@ -297,11 +297,56 @@
   <si>
     <t>Golden Eagle Hay Co</t>
   </si>
+  <si>
+    <t>Top-Hay,LLC</t>
+  </si>
+  <si>
+    <t>Gli-Co Hay, Inc.</t>
+  </si>
+  <si>
+    <t>Blue Mountain Hay</t>
+  </si>
+  <si>
+    <t>PSW Hay, LLC</t>
+  </si>
+  <si>
+    <t>Haasen Tara Feed, Inc.</t>
+  </si>
+  <si>
+    <t>Driscoll TopHay, LLC</t>
+  </si>
+  <si>
+    <t>United Hay Press, Inc</t>
+  </si>
+  <si>
+    <t>Courtright Enterprises Inc.</t>
+  </si>
+  <si>
+    <t>Hajny Trading</t>
+  </si>
+  <si>
+    <t>Stevens Hay Exports LLC</t>
+  </si>
+  <si>
+    <t>Potential Industries Hay Division</t>
+  </si>
+  <si>
+    <t>Eagle Tail Mountain Hay LLC</t>
+  </si>
+  <si>
+    <t>FAA Export</t>
+  </si>
+  <si>
+    <t>FCA Export</t>
+  </si>
+  <si>
+    <t>Highland Hay LLC.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27">
     <font>
       <sz val="11"/>
@@ -914,7 +959,7 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="43"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1233,11 +1278,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1358,94 +1403,99 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
+      <c r="A19" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75">
+      <c r="A30" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
       <c r="A31" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75">
@@ -1455,7 +1505,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75">
       <c r="A33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75">
@@ -1470,12 +1520,12 @@
     </row>
     <row r="36" spans="1:2" ht="15.75">
       <c r="A36" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75">
       <c r="A37" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75">
@@ -1485,194 +1535,264 @@
     </row>
     <row r="39" spans="1:2" ht="15.75">
       <c r="A39" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75">
-      <c r="A40" s="7" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75">
+      <c r="A41" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75">
       <c r="A42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75">
       <c r="A43" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75">
       <c r="A44" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75">
       <c r="A45" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75">
-      <c r="A46" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" ht="15.75">
       <c r="A47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="48" spans="1:2" ht="15.75">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75">
-      <c r="A49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
+      <c r="A49" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75">
       <c r="A50" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75">
       <c r="A51" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75">
-      <c r="A52" s="9" t="s">
-        <v>71</v>
+      <c r="A52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75">
-      <c r="A53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" t="s">
-        <v>39</v>
+      <c r="A53" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75">
       <c r="A54" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75">
-      <c r="A55" s="9" t="s">
-        <v>73</v>
+      <c r="A55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75">
-      <c r="A56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>45</v>
+      <c r="A56" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75">
       <c r="A57" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75">
       <c r="A58" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75">
       <c r="A59" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75">
       <c r="A60" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75">
       <c r="A61" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75">
       <c r="A62" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75">
-      <c r="A63" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="4" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75">
-      <c r="A65" s="9" t="s">
+    <row r="64" spans="1:2" ht="15.75">
+      <c r="A64" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75">
-      <c r="A67" s="9" t="s">
+    <row r="66" spans="1:2" ht="15.75">
+      <c r="A66" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="10" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75">
-      <c r="A69" s="9" t="s">
+    <row r="68" spans="1:2" ht="15.75">
+      <c r="A68" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="10" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75">
-      <c r="A71" s="9" t="s">
+    <row r="70" spans="1:2" ht="15.75">
+      <c r="A70" s="9" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75">
+      <c r="A72" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75">
+      <c r="A74" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75">
+      <c r="A76" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75">
+      <c r="A78" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75">
+      <c r="A80" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.75">
+      <c r="A82" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15.75">
+      <c r="A84" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
-    <hyperlink ref="B56" r:id="rId3"/>
-    <hyperlink ref="B64" r:id="rId4" display="mailto:bbf@baileyhay.com"/>
-    <hyperlink ref="B20" r:id="rId5"/>
-    <hyperlink ref="B66" r:id="rId6"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B55" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B63" r:id="rId4" display="mailto:bbf@baileyhay.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B65" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/WORK/Correos.xlsx
+++ b/WORK/Correos.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raul_\Desktop\PROGRAMMING\PYTHON\curse_raul_python\WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD072E6-4617-4FD3-9A94-CDAA300E6BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB31847-21E2-47FD-8E6E-A85FD9AF4AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-11640" yWindow="-6915" windowWidth="11760" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Correos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
   <si>
     <t>Names</t>
   </si>
@@ -342,12 +354,57 @@
   <si>
     <t>Highland Hay LLC.</t>
   </si>
+  <si>
+    <t>Phone: +3223792940</t>
+  </si>
+  <si>
+    <t>ensign@ensignship.com</t>
+  </si>
+  <si>
+    <t>dbn@fpt.co.za</t>
+  </si>
+  <si>
+    <t>info@qualitywarehousing.co.za</t>
+  </si>
+  <si>
+    <t>DOK-Krakow@hellmann.com</t>
+  </si>
+  <si>
+    <t>Phone: +27-218643158</t>
+  </si>
+  <si>
+    <t>info@agri-tech.co.za</t>
+  </si>
+  <si>
+    <t>sales@kandmpress.com</t>
+  </si>
+  <si>
+    <t>Phone: 760.352.4157</t>
+  </si>
+  <si>
+    <t>Phone (760) 348-2274</t>
+  </si>
+  <si>
+    <t>operation@tophayexport.com</t>
+  </si>
+  <si>
+    <t>service@gli-cohay.com</t>
+  </si>
+  <si>
+    <t>customercare@bluemthay.com</t>
+  </si>
+  <si>
+    <t>Tel: 310-522-3800     </t>
+  </si>
+  <si>
+    <t>Phone: +81 (0)90-7215-8708</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +588,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="方正仿宋_GBK"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF216FDB"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -893,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -922,6 +1003,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1279,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1443,54 +1531,80 @@
         <v>47</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5">
       <c r="A24" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75">
+      <c r="A29" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75">
       <c r="A30" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
@@ -1500,7 +1614,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75">
       <c r="A32" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
@@ -1515,12 +1629,12 @@
     </row>
     <row r="35" spans="1:2" ht="15.75">
       <c r="A35" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75">
       <c r="A36" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75">
@@ -1530,258 +1644,277 @@
     </row>
     <row r="38" spans="1:2" ht="15.75">
       <c r="A38" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75">
-      <c r="A39" s="7" t="s">
-        <v>49</v>
+      <c r="A39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75">
+      <c r="A40" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75">
       <c r="A41" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75">
       <c r="A42" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75">
       <c r="A43" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75">
-      <c r="A44" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" ht="15.75">
-      <c r="A45" s="8" t="s">
-        <v>68</v>
+      <c r="A45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75">
       <c r="A46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="15.75">
-      <c r="A47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
+      <c r="A47" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75">
-      <c r="A48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
+      <c r="A48" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75">
       <c r="A49" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75">
-      <c r="A50" s="9" t="s">
-        <v>70</v>
+      <c r="A50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75">
       <c r="A51" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75">
-      <c r="A52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" t="s">
-        <v>39</v>
+      <c r="A52" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75">
-      <c r="A53" s="9" t="s">
-        <v>72</v>
+      <c r="A53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75">
       <c r="A54" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75">
-      <c r="A55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>45</v>
+      <c r="A55" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75">
       <c r="A56" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75">
       <c r="A57" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75">
       <c r="A58" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75">
       <c r="A59" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75">
       <c r="A60" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75">
-      <c r="A61" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75">
       <c r="A62" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75">
       <c r="A64" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>48</v>
+      <c r="A65" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75">
       <c r="A66" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75">
       <c r="A68" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75">
       <c r="A70" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75">
       <c r="A72" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75">
       <c r="A74" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75">
       <c r="A76" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75">
       <c r="A78" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75">
       <c r="A80" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15.75">
       <c r="A82" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="15.75">
-      <c r="A84" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1789,12 +1922,20 @@
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B55" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B63" r:id="rId4" display="mailto:bbf@baileyhay.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B53" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B61" r:id="rId4" display="mailto:bbf@baileyhay.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B65" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B63" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B23" r:id="rId7" xr:uid="{790526BB-34EE-4FD9-9221-67655E9FDF32}"/>
+    <hyperlink ref="B25" r:id="rId8" display="mailto:info@qualitywarehousing.co.za?subject=Website%20Form%20Submitted" xr:uid="{1BE932A6-2ECE-4FA8-A016-83003ECBFC84}"/>
+    <hyperlink ref="B26" r:id="rId9" display="mailto:DOK-Krakow@hellmann.com" xr:uid="{C5D915E2-5555-4567-9D8C-820E26974FBF}"/>
+    <hyperlink ref="B28" r:id="rId10" xr:uid="{78799A4A-AE47-4A18-8EFB-170BE1FC08F7}"/>
+    <hyperlink ref="B54" r:id="rId11" display="mailto:sales@kandmpress.com" xr:uid="{4272D31C-E463-435A-9F42-15651F648B65}"/>
+    <hyperlink ref="B69" r:id="rId12" display="mailto:operation@tophayexport.com" xr:uid="{63CAD286-7979-415B-84F3-A5C77CB86011}"/>
+    <hyperlink ref="B70" r:id="rId13" display="mailto:service@gli-cohay.com" xr:uid="{8200E72F-3C80-40D4-8FC4-BBE16EC013F3}"/>
+    <hyperlink ref="B71" r:id="rId14" display="mailto:customercare@bluemthay.com" xr:uid="{8D6DCA40-3E4B-4828-B949-A497A47439E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/WORK/Correos.xlsx
+++ b/WORK/Correos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raul_\Desktop\PROGRAMMING\PYTHON\curse_raul_python\WORK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raul_\Documents\PROGRAMMING\PYTHON\curse_raul_python\WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB31847-21E2-47FD-8E6E-A85FD9AF4AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A486ADF1-ED28-4C62-903A-FC6D0E15EB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11640" yWindow="-6915" windowWidth="11760" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Correos" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
   <si>
     <t>Names</t>
   </si>
@@ -398,6 +397,21 @@
   </si>
   <si>
     <t>Phone: +81 (0)90-7215-8708</t>
+  </si>
+  <si>
+    <t>info@anchor-holdings.co.za</t>
+  </si>
+  <si>
+    <t>info@alphaalfa.co.za</t>
+  </si>
+  <si>
+    <t>dbedt.luc.web@hawaii.gov</t>
+  </si>
+  <si>
+    <t>sales@npride.co.za</t>
+  </si>
+  <si>
+    <t>agri@za.steinweg.com</t>
   </si>
 </sst>
 </file>
@@ -1367,16 +1381,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="72.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="72.26953125" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1491,7 +1505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75">
+    <row r="15" spans="1:2" ht="16">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1499,7 +1513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75">
+    <row r="16" spans="1:2" ht="16">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1507,7 +1521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1515,7 +1529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1535,11 +1549,17 @@
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
@@ -1597,324 +1617,316 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75">
+    <row r="29" spans="1:2" ht="15.5">
       <c r="A29" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75">
+      <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.5">
       <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75">
+      <c r="B30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.5">
       <c r="A31" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.5">
       <c r="A32" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.5">
       <c r="A33" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75">
-      <c r="A34" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.5">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.5">
       <c r="A35" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75">
-      <c r="A36" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75">
-      <c r="A37" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75">
-      <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75">
+    <row r="36" spans="1:2" ht="15.5">
+      <c r="A36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.5">
+      <c r="A37" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.5">
+      <c r="A38" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.5">
       <c r="A39" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.5">
       <c r="A40" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75">
-      <c r="A41" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75">
-      <c r="A42" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75">
-      <c r="A43" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75">
-      <c r="A44" s="2" t="s">
+    <row r="41" spans="1:2" ht="16">
+      <c r="A41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" ht="15.75">
-      <c r="A45" s="2" t="s">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="16">
+      <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75">
-      <c r="A46" s="2" t="s">
+    <row r="43" spans="1:2" ht="16">
+      <c r="A43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75">
-      <c r="A47" s="9" t="s">
+    <row r="44" spans="1:2" ht="16">
+      <c r="A44" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75">
+    <row r="45" spans="1:2" ht="16">
+      <c r="A45" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16">
+      <c r="A46" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16">
+      <c r="A47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16">
       <c r="A48" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16">
       <c r="A49" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16">
       <c r="A50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75">
+        <v>30</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16">
       <c r="A51" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75">
+        <v>74</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16">
       <c r="A52" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75">
-      <c r="A53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75">
+        <v>75</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16">
+      <c r="A53" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16">
       <c r="A54" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16">
       <c r="A55" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16">
       <c r="A56" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16">
       <c r="A57" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75">
-      <c r="A58" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16">
       <c r="A59" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75">
-      <c r="A60" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75">
-      <c r="A62" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="4" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75">
-      <c r="A64" s="9" t="s">
+    <row r="61" spans="1:2" ht="16">
+      <c r="A61" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="10" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75">
-      <c r="A66" s="9" t="s">
+    <row r="63" spans="1:2" ht="16">
+      <c r="A63" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="10" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75">
-      <c r="A68" s="9" t="s">
+    <row r="65" spans="1:2" ht="16">
+      <c r="A65" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B65" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="10" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75">
-      <c r="A70" s="9" t="s">
+    <row r="67" spans="1:2" ht="16">
+      <c r="A67" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="10" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75">
-      <c r="A72" s="9" t="s">
+    <row r="69" spans="1:2" ht="16">
+      <c r="A69" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B69" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="10" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B70" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75">
-      <c r="A74" s="9" t="s">
+    <row r="71" spans="1:2" ht="16">
+      <c r="A71" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="10" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75">
-      <c r="A76" s="9" t="s">
+    <row r="73" spans="1:2" ht="16">
+      <c r="A73" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="10" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75">
-      <c r="A78" s="9" t="s">
+    <row r="75" spans="1:2" ht="16">
+      <c r="A75" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="10" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75">
-      <c r="A80" s="9" t="s">
+    <row r="77" spans="1:2" ht="16">
+      <c r="A77" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="10" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15.75">
-      <c r="A82" s="9" t="s">
+    <row r="79" spans="1:2" ht="16">
+      <c r="A79" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="10" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1922,20 +1934,25 @@
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B53" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B61" r:id="rId4" display="mailto:bbf@baileyhay.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B50" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B58" r:id="rId4" display="mailto:bbf@baileyhay.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B63" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B60" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="B23" r:id="rId7" xr:uid="{790526BB-34EE-4FD9-9221-67655E9FDF32}"/>
     <hyperlink ref="B25" r:id="rId8" display="mailto:info@qualitywarehousing.co.za?subject=Website%20Form%20Submitted" xr:uid="{1BE932A6-2ECE-4FA8-A016-83003ECBFC84}"/>
     <hyperlink ref="B26" r:id="rId9" display="mailto:DOK-Krakow@hellmann.com" xr:uid="{C5D915E2-5555-4567-9D8C-820E26974FBF}"/>
     <hyperlink ref="B28" r:id="rId10" xr:uid="{78799A4A-AE47-4A18-8EFB-170BE1FC08F7}"/>
-    <hyperlink ref="B54" r:id="rId11" display="mailto:sales@kandmpress.com" xr:uid="{4272D31C-E463-435A-9F42-15651F648B65}"/>
-    <hyperlink ref="B69" r:id="rId12" display="mailto:operation@tophayexport.com" xr:uid="{63CAD286-7979-415B-84F3-A5C77CB86011}"/>
-    <hyperlink ref="B70" r:id="rId13" display="mailto:service@gli-cohay.com" xr:uid="{8200E72F-3C80-40D4-8FC4-BBE16EC013F3}"/>
-    <hyperlink ref="B71" r:id="rId14" display="mailto:customercare@bluemthay.com" xr:uid="{8D6DCA40-3E4B-4828-B949-A497A47439E0}"/>
+    <hyperlink ref="B51" r:id="rId11" display="mailto:sales@kandmpress.com" xr:uid="{4272D31C-E463-435A-9F42-15651F648B65}"/>
+    <hyperlink ref="B66" r:id="rId12" display="mailto:operation@tophayexport.com" xr:uid="{63CAD286-7979-415B-84F3-A5C77CB86011}"/>
+    <hyperlink ref="B67" r:id="rId13" display="mailto:service@gli-cohay.com" xr:uid="{8200E72F-3C80-40D4-8FC4-BBE16EC013F3}"/>
+    <hyperlink ref="B68" r:id="rId14" display="mailto:customercare@bluemthay.com" xr:uid="{8D6DCA40-3E4B-4828-B949-A497A47439E0}"/>
+    <hyperlink ref="B31" r:id="rId15" xr:uid="{F3DFCD30-3928-42DC-BC2D-DC46552AFB41}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{F7C6FF8D-41D7-4027-BB39-1B5F9A56E21D}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{E4AA5B85-67B9-446F-BEDF-3F2C2640FCCF}"/>
+    <hyperlink ref="B29" r:id="rId18" display="mailto:sales@npride.co.za?Subject=Website%20Enquiry" xr:uid="{E92C56BC-00BA-4872-821C-A8976A2C2AF6}"/>
+    <hyperlink ref="B30" r:id="rId19" display="mailto:agri@za.steinweg.com" xr:uid="{C58A8E93-6D24-4F98-BEB6-0CB02E04409B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/WORK/Correos.xlsx
+++ b/WORK/Correos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raul_\Documents\PROGRAMMING\PYTHON\curse_raul_python\WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A486ADF1-ED28-4C62-903A-FC6D0E15EB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8009048-BD42-44D2-A406-F110AA8DA2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
   <si>
     <t>Names</t>
   </si>
@@ -413,12 +413,42 @@
   <si>
     <t>agri@za.steinweg.com</t>
   </si>
+  <si>
+    <t>info@reidinnovations.com</t>
+  </si>
+  <si>
+    <t>Admin@senzomix.co.za</t>
+  </si>
+  <si>
+    <t>Phone: 509-925-9818</t>
+  </si>
+  <si>
+    <t>Dusty@highlandhay.org</t>
+  </si>
+  <si>
+    <t>vicki@eagletailhay.com</t>
+  </si>
+  <si>
+    <t>sales@potentialhay.com</t>
+  </si>
+  <si>
+    <t>Phone: (509) 390-3036</t>
+  </si>
+  <si>
+    <t>mike@htrading.us</t>
+  </si>
+  <si>
+    <t>Phone: +1 509-764-9600</t>
+  </si>
+  <si>
+    <t>PeterKim@unitedhaypress.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,6 +655,13 @@
     <font>
       <sz val="11"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF4599FF"/>
+      <name val="Segoe UI Historic"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -988,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1024,6 +1061,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1381,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1521,7 +1559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1529,7 +1567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1537,7 +1575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +1583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -1553,7 +1591,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -1561,7 +1599,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>51</v>
       </c>
@@ -1569,7 +1607,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>52</v>
       </c>
@@ -1577,7 +1615,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5">
+    <row r="24" spans="1:3" ht="16.5">
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
@@ -1585,7 +1623,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
@@ -1593,7 +1631,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>55</v>
       </c>
@@ -1601,7 +1639,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -1609,7 +1647,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
@@ -1617,7 +1655,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.5">
+    <row r="29" spans="1:3" ht="15.5">
       <c r="A29" s="7" t="s">
         <v>58</v>
       </c>
@@ -1625,7 +1663,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.5">
+    <row r="30" spans="1:3" ht="15.5">
       <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
@@ -1633,7 +1671,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.5">
+    <row r="31" spans="1:3" ht="15.5">
       <c r="A31" s="7" t="s">
         <v>60</v>
       </c>
@@ -1641,318 +1679,355 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.5">
+    <row r="32" spans="1:3" ht="15.5">
       <c r="A32" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:2" ht="15.5">
       <c r="A33" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="34" spans="1:2" ht="15.5">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="15.5">
-      <c r="A35" s="7" t="s">
-        <v>49</v>
+      <c r="A35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.5">
       <c r="A36" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.5">
       <c r="A37" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.5">
       <c r="A38" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.5">
       <c r="A39" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.5">
-      <c r="A40" s="8" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="40" spans="1:2" ht="16">
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" ht="16">
       <c r="A41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" spans="1:2" ht="16">
       <c r="A42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16">
-      <c r="A43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
+      <c r="A43" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16">
       <c r="A44" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16">
       <c r="A45" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16">
-      <c r="A46" s="9" t="s">
-        <v>71</v>
+      <c r="A46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16">
-      <c r="A47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
+      <c r="A47" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16">
       <c r="A48" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16">
-      <c r="A49" s="9" t="s">
-        <v>73</v>
+      <c r="A49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16">
-      <c r="A50" s="2" t="s">
-        <v>30</v>
+      <c r="A50" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16">
       <c r="A51" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>75</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16">
       <c r="A52" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16">
       <c r="A53" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16">
       <c r="A54" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16">
       <c r="A55" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16">
       <c r="A56" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16">
-      <c r="A57" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16">
-      <c r="A59" s="9" t="s">
+    <row r="58" spans="1:2" ht="16">
+      <c r="A58" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16">
-      <c r="A61" s="9" t="s">
+    <row r="60" spans="1:2" ht="16">
+      <c r="A60" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="10" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16">
-      <c r="A63" s="9" t="s">
+    <row r="62" spans="1:2" ht="16">
+      <c r="A62" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="10" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16">
-      <c r="A65" s="9" t="s">
+    <row r="64" spans="1:2" ht="16">
+      <c r="A64" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B64" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="10" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="10" t="s">
         <v>87</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="16">
+      <c r="A66" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="B66" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16">
-      <c r="A67" s="9" t="s">
-        <v>88</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16">
-      <c r="A69" s="9" t="s">
+    <row r="68" spans="1:2" ht="16">
+      <c r="A68" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="10" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B69" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16">
-      <c r="A71" s="9" t="s">
+    <row r="70" spans="1:2" ht="16">
+      <c r="A70" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="10" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="16">
-      <c r="A73" s="9" t="s">
+      <c r="B71" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16">
+      <c r="A72" s="9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="10" t="s">
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="16">
-      <c r="A75" s="9" t="s">
+      <c r="B73" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16">
+      <c r="A74" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="10" t="s">
+      <c r="B74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="16">
-      <c r="A77" s="9" t="s">
+      <c r="B75" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16">
+      <c r="A76" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="10" t="s">
+      <c r="B76" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16">
-      <c r="A79" s="9" t="s">
+    <row r="78" spans="1:2" ht="16">
+      <c r="A78" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="10" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="10" t="s">
         <v>101</v>
+      </c>
+      <c r="B79" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B50" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B58" r:id="rId4" display="mailto:bbf@baileyhay.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B49" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B57" r:id="rId4" display="mailto:bbf@baileyhay.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B60" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B59" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="B23" r:id="rId7" xr:uid="{790526BB-34EE-4FD9-9221-67655E9FDF32}"/>
     <hyperlink ref="B25" r:id="rId8" display="mailto:info@qualitywarehousing.co.za?subject=Website%20Form%20Submitted" xr:uid="{1BE932A6-2ECE-4FA8-A016-83003ECBFC84}"/>
     <hyperlink ref="B26" r:id="rId9" display="mailto:DOK-Krakow@hellmann.com" xr:uid="{C5D915E2-5555-4567-9D8C-820E26974FBF}"/>
     <hyperlink ref="B28" r:id="rId10" xr:uid="{78799A4A-AE47-4A18-8EFB-170BE1FC08F7}"/>
-    <hyperlink ref="B51" r:id="rId11" display="mailto:sales@kandmpress.com" xr:uid="{4272D31C-E463-435A-9F42-15651F648B65}"/>
-    <hyperlink ref="B66" r:id="rId12" display="mailto:operation@tophayexport.com" xr:uid="{63CAD286-7979-415B-84F3-A5C77CB86011}"/>
-    <hyperlink ref="B67" r:id="rId13" display="mailto:service@gli-cohay.com" xr:uid="{8200E72F-3C80-40D4-8FC4-BBE16EC013F3}"/>
-    <hyperlink ref="B68" r:id="rId14" display="mailto:customercare@bluemthay.com" xr:uid="{8D6DCA40-3E4B-4828-B949-A497A47439E0}"/>
+    <hyperlink ref="B50" r:id="rId11" display="mailto:sales@kandmpress.com" xr:uid="{4272D31C-E463-435A-9F42-15651F648B65}"/>
+    <hyperlink ref="B65" r:id="rId12" display="mailto:operation@tophayexport.com" xr:uid="{63CAD286-7979-415B-84F3-A5C77CB86011}"/>
+    <hyperlink ref="B66" r:id="rId13" display="mailto:service@gli-cohay.com" xr:uid="{8200E72F-3C80-40D4-8FC4-BBE16EC013F3}"/>
+    <hyperlink ref="B67" r:id="rId14" display="mailto:customercare@bluemthay.com" xr:uid="{8D6DCA40-3E4B-4828-B949-A497A47439E0}"/>
     <hyperlink ref="B31" r:id="rId15" xr:uid="{F3DFCD30-3928-42DC-BC2D-DC46552AFB41}"/>
     <hyperlink ref="B20" r:id="rId16" xr:uid="{F7C6FF8D-41D7-4027-BB39-1B5F9A56E21D}"/>
     <hyperlink ref="B21" r:id="rId17" xr:uid="{E4AA5B85-67B9-446F-BEDF-3F2C2640FCCF}"/>
     <hyperlink ref="B29" r:id="rId18" display="mailto:sales@npride.co.za?Subject=Website%20Enquiry" xr:uid="{E92C56BC-00BA-4872-821C-A8976A2C2AF6}"/>
     <hyperlink ref="B30" r:id="rId19" display="mailto:agri@za.steinweg.com" xr:uid="{C58A8E93-6D24-4F98-BEB6-0CB02E04409B}"/>
+    <hyperlink ref="B33" r:id="rId20" xr:uid="{F38817AC-9814-4225-A654-267BBC7C2071}"/>
+    <hyperlink ref="B34" r:id="rId21" xr:uid="{86CD3D61-B478-4583-8EAF-0288906FC4AA}"/>
+    <hyperlink ref="B76" r:id="rId22" xr:uid="{0CCD709F-5DD1-4744-88E7-30FADA77CA1B}"/>
+    <hyperlink ref="B75" r:id="rId23" xr:uid="{1ED5624C-3CE3-471F-88AE-B69B018A90E3}"/>
+    <hyperlink ref="B73" r:id="rId24" xr:uid="{DE8C9AE0-F8DB-4242-ACAD-4189848A84B7}"/>
+    <hyperlink ref="B71" r:id="rId25" xr:uid="{E2FAE552-FF7D-4EE9-AEC4-8963449A5D37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/WORK/Correos.xlsx
+++ b/WORK/Correos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raul_\Documents\PROGRAMMING\PYTHON\curse_raul_python\WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8009048-BD42-44D2-A406-F110AA8DA2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882A6B17-7856-4808-A57F-12DD2B2000C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="138">
   <si>
     <t>Names</t>
   </si>
@@ -442,6 +442,24 @@
   </si>
   <si>
     <t>PeterKim@unitedhaypress.com</t>
+  </si>
+  <si>
+    <t>Phone: (760)344-6700</t>
+  </si>
+  <si>
+    <t>oregonhaychina@126.com</t>
+  </si>
+  <si>
+    <t>wilmingtonproducts@aldahra.com</t>
+  </si>
+  <si>
+    <t>information@wardrugh.com</t>
+  </si>
+  <si>
+    <t>Phone: (412) 454-2200</t>
+  </si>
+  <si>
+    <t>Phone: 509-269-4601</t>
   </si>
 </sst>
 </file>
@@ -1421,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1724,16 +1742,25 @@
       <c r="A37" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="38" spans="1:2" ht="15.5">
       <c r="A38" s="8" t="s">
         <v>67</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="39" spans="1:2" ht="15.5">
       <c r="A39" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="40" spans="1:2" ht="16">
       <c r="A40" s="2" t="s">
@@ -1761,16 +1788,25 @@
       <c r="A43" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="44" spans="1:2" ht="16">
       <c r="A44" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="45" spans="1:2" ht="16">
       <c r="A45" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="46" spans="1:2" ht="16">
       <c r="A46" s="2" t="s">
@@ -1817,6 +1853,9 @@
     <row r="52" spans="1:2" ht="16">
       <c r="A52" s="9" t="s">
         <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16">
@@ -2026,8 +2065,11 @@
     <hyperlink ref="B75" r:id="rId23" xr:uid="{1ED5624C-3CE3-471F-88AE-B69B018A90E3}"/>
     <hyperlink ref="B73" r:id="rId24" xr:uid="{DE8C9AE0-F8DB-4242-ACAD-4189848A84B7}"/>
     <hyperlink ref="B71" r:id="rId25" xr:uid="{E2FAE552-FF7D-4EE9-AEC4-8963449A5D37}"/>
+    <hyperlink ref="B38" r:id="rId26" xr:uid="{11029451-73EC-4B3B-9B41-C94B22338924}"/>
+    <hyperlink ref="B39" r:id="rId27" xr:uid="{D1709EB8-CC55-43B0-81D1-1C5DB5C5D29C}"/>
+    <hyperlink ref="B43" r:id="rId28" xr:uid="{44F8F340-DE94-40FE-85EA-0CB836C20F9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/WORK/Correos.xlsx
+++ b/WORK/Correos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raul_\Documents\PROGRAMMING\PYTHON\curse_raul_python\WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882A6B17-7856-4808-A57F-12DD2B2000C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8853B-A47C-426E-ACF4-49325532D730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
   <si>
     <t>Names</t>
   </si>
@@ -460,6 +460,24 @@
   </si>
   <si>
     <t>Phone: 509-269-4601</t>
+  </si>
+  <si>
+    <t>jmilkowski@agrexinc.com</t>
+  </si>
+  <si>
+    <t>Phone: 509-962-8133</t>
+  </si>
+  <si>
+    <t>reception@agwestinternational.com</t>
+  </si>
+  <si>
+    <t>Phone: (562) 216-9200</t>
+  </si>
+  <si>
+    <t>sales@tripleipress.com</t>
+  </si>
+  <si>
+    <t>info@krone-na.com</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1766,7 +1784,9 @@
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="41" spans="1:2" ht="16">
       <c r="A41" s="2" t="s">
@@ -1820,11 +1840,17 @@
       <c r="A47" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="48" spans="1:2" ht="16">
       <c r="A48" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="49" spans="1:2" ht="16">
       <c r="A49" s="2" t="s">
@@ -1862,15 +1888,24 @@
       <c r="A53" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="B53" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="54" spans="1:2" ht="16">
       <c r="A54" s="9" t="s">
         <v>78</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="55" spans="1:2" ht="16">
       <c r="A55" s="9" t="s">
         <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16">
@@ -2068,8 +2103,12 @@
     <hyperlink ref="B38" r:id="rId26" xr:uid="{11029451-73EC-4B3B-9B41-C94B22338924}"/>
     <hyperlink ref="B39" r:id="rId27" xr:uid="{D1709EB8-CC55-43B0-81D1-1C5DB5C5D29C}"/>
     <hyperlink ref="B43" r:id="rId28" xr:uid="{44F8F340-DE94-40FE-85EA-0CB836C20F9F}"/>
+    <hyperlink ref="B40" r:id="rId29" xr:uid="{96E67C36-9B2B-481C-A3E3-3C6E1B466B88}"/>
+    <hyperlink ref="B48" r:id="rId30" xr:uid="{04E091A7-5DB1-434E-AD90-2525ACB49E7C}"/>
+    <hyperlink ref="B54" r:id="rId31" xr:uid="{09302400-7AE4-4D23-BF7A-30CA3B68C294}"/>
+    <hyperlink ref="B55" r:id="rId32" xr:uid="{0B544E3E-C11B-4280-AD14-BB4688803AC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/WORK/Correos.xlsx
+++ b/WORK/Correos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raul_\Documents\PROGRAMMING\PYTHON\curse_raul_python\WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8853B-A47C-426E-ACF4-49325532D730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FAFEA8-8AE7-49BB-8B60-B0B346D8B9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="148">
   <si>
     <t>Names</t>
   </si>
@@ -479,12 +479,24 @@
   <si>
     <t>info@krone-na.com</t>
   </si>
+  <si>
+    <t>Phone: (530) 795-5888</t>
+  </si>
+  <si>
+    <t>Phone:  (435) 283-4783</t>
+  </si>
+  <si>
+    <t>lstcrkqrthorse@hotmail.com</t>
+  </si>
+  <si>
+    <t>Phone: 208.904.4049</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +707,12 @@
     </font>
     <font>
       <u/>
+      <sz val="8"/>
+      <color rgb="FF4599FF"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF4599FF"/>
       <name val="Segoe UI Historic"/>
@@ -1061,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1098,6 +1116,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1455,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1852,7 +1871,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16">
+    <row r="49" spans="1:4" ht="16">
       <c r="A49" s="2" t="s">
         <v>30</v>
       </c>
@@ -1860,7 +1879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16">
+    <row r="50" spans="1:4" ht="16">
       <c r="A50" s="9" t="s">
         <v>74</v>
       </c>
@@ -1868,7 +1887,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16">
+    <row r="51" spans="1:4" ht="16">
       <c r="A51" s="9" t="s">
         <v>75</v>
       </c>
@@ -1876,7 +1895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16">
+    <row r="52" spans="1:4" ht="16">
       <c r="A52" s="9" t="s">
         <v>76</v>
       </c>
@@ -1884,7 +1903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16">
+    <row r="53" spans="1:4" ht="16">
       <c r="A53" s="9" t="s">
         <v>77</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16">
+    <row r="54" spans="1:4" ht="16">
       <c r="A54" s="9" t="s">
         <v>78</v>
       </c>
@@ -1900,7 +1919,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16">
+    <row r="55" spans="1:4" ht="16">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -1908,12 +1927,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16">
+    <row r="56" spans="1:4" ht="16">
       <c r="A56" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="B56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>36</v>
       </c>
@@ -1921,12 +1943,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16">
+    <row r="58" spans="1:4" ht="16">
       <c r="A58" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
         <v>38</v>
       </c>
@@ -1934,27 +1959,34 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16">
+    <row r="60" spans="1:4" ht="16">
       <c r="A60" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="18"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="16">
+      <c r="B61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16">
       <c r="A62" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:4">
       <c r="A63" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16">
+    <row r="64" spans="1:4" ht="16">
       <c r="A64" s="9" t="s">
         <v>86</v>
       </c>
@@ -2005,6 +2037,9 @@
     <row r="70" spans="1:2" ht="16">
       <c r="A70" s="9" t="s">
         <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2107,8 +2142,9 @@
     <hyperlink ref="B48" r:id="rId30" xr:uid="{04E091A7-5DB1-434E-AD90-2525ACB49E7C}"/>
     <hyperlink ref="B54" r:id="rId31" xr:uid="{09302400-7AE4-4D23-BF7A-30CA3B68C294}"/>
     <hyperlink ref="B55" r:id="rId32" xr:uid="{0B544E3E-C11B-4280-AD14-BB4688803AC3}"/>
+    <hyperlink ref="B61" r:id="rId33" xr:uid="{0FF6D3A5-F254-483B-90A0-B0356A0740A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>